--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J2">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N2">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q2">
-        <v>0.06950727831222221</v>
+        <v>0.01106594580711111</v>
       </c>
       <c r="R2">
-        <v>0.62556550481</v>
+        <v>0.09959351226399998</v>
       </c>
       <c r="S2">
-        <v>0.005277542911270617</v>
+        <v>0.000764501020939682</v>
       </c>
       <c r="T2">
-        <v>0.005277542911270618</v>
+        <v>0.0007645010209396821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J3">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.820535</v>
       </c>
       <c r="O3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q3">
-        <v>0.4918978960011111</v>
+        <v>0.02487783440388889</v>
       </c>
       <c r="R3">
-        <v>4.427081064009999</v>
+        <v>0.223900509635</v>
       </c>
       <c r="S3">
-        <v>0.03734878299288997</v>
+        <v>0.001718708019365094</v>
       </c>
       <c r="T3">
-        <v>0.03734878299288998</v>
+        <v>0.001718708019365094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H4">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I4">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J4">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.539461</v>
       </c>
       <c r="O4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q4">
-        <v>0.3052185649384444</v>
+        <v>0.01543648992455555</v>
       </c>
       <c r="R4">
-        <v>2.746967084446</v>
+        <v>0.138928409321</v>
       </c>
       <c r="S4">
-        <v>0.02317461009685129</v>
+        <v>0.001066444071998278</v>
       </c>
       <c r="T4">
-        <v>0.0231746100968513</v>
+        <v>0.001066444071998278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.129417</v>
       </c>
       <c r="I5">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J5">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N5">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q5">
-        <v>0.3869301072994444</v>
+        <v>1.218016500889778</v>
       </c>
       <c r="R5">
-        <v>3.482370965695</v>
+        <v>10.962148508008</v>
       </c>
       <c r="S5">
-        <v>0.02937879736511404</v>
+        <v>0.08414778769775197</v>
       </c>
       <c r="T5">
-        <v>0.02937879736511404</v>
+        <v>0.08414778769775197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.129417</v>
       </c>
       <c r="I6">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J6">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.820535</v>
       </c>
       <c r="O6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q6">
         <v>2.738275908677223</v>
@@ -818,10 +818,10 @@
         <v>24.644483178095</v>
       </c>
       <c r="S6">
-        <v>0.2079115879926699</v>
+        <v>0.1891763039769288</v>
       </c>
       <c r="T6">
-        <v>0.2079115879926699</v>
+        <v>0.1891763039769288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.129417</v>
       </c>
       <c r="I7">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J7">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>13.539461</v>
       </c>
       <c r="O7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q7">
         <v>1.699077491581889</v>
@@ -880,10 +880,10 @@
         <v>15.291697424237</v>
       </c>
       <c r="S7">
-        <v>0.1290074160452447</v>
+        <v>0.1173823276936048</v>
       </c>
       <c r="T7">
-        <v>0.1290074160452447</v>
+        <v>0.1173823276936048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>1.751027</v>
       </c>
       <c r="I8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N8">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O8">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P8">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q8">
-        <v>0.5998892038938889</v>
+        <v>1.888390009627555</v>
       </c>
       <c r="R8">
-        <v>5.399002835045001</v>
+        <v>16.995510086648</v>
       </c>
       <c r="S8">
-        <v>0.04554833813714823</v>
+        <v>0.1304611567286764</v>
       </c>
       <c r="T8">
-        <v>0.04554833813714823</v>
+        <v>0.1304611567286764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.751027</v>
       </c>
       <c r="I9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.820535</v>
       </c>
       <c r="O9">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P9">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q9">
         <v>4.245371771049445</v>
@@ -1004,10 +1004,10 @@
         <v>38.208345939445</v>
       </c>
       <c r="S9">
-        <v>0.3223422386842422</v>
+        <v>0.2932954046413414</v>
       </c>
       <c r="T9">
-        <v>0.3223422386842422</v>
+        <v>0.2932954046413413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.751027</v>
       </c>
       <c r="I10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>13.539461</v>
       </c>
       <c r="O10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q10">
         <v>2.634217975160778</v>
@@ -1066,10 +1066,10 @@
         <v>23.707961776447</v>
       </c>
       <c r="S10">
-        <v>0.2000106857745692</v>
+        <v>0.1819873661493937</v>
       </c>
       <c r="T10">
-        <v>0.2000106857745692</v>
+        <v>0.1819873661493936</v>
       </c>
     </row>
   </sheetData>
